--- a/Clankriegs.xlsx
+++ b/Clankriegs.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="9315" windowHeight="5970"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="01_2020" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,9 +27,6 @@
     <t>Beatle</t>
   </si>
   <si>
-    <t>MeiserHo</t>
-  </si>
-  <si>
     <t>seatro</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>MeisterHo</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,10 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -193,6 +201,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:Q18" totalsRowCount="1">
   <autoFilter ref="A2:Q17"/>
+  <sortState ref="A3:Q17">
+    <sortCondition descending="1" ref="Q2:Q17"/>
+  </sortState>
   <tableColumns count="17">
     <tableColumn id="1" name="Nr" totalsRowLabel="Ergebnis"/>
     <tableColumn id="2" name="Name"/>
@@ -211,7 +222,7 @@
     <tableColumn id="15" name="7"/>
     <tableColumn id="16" name="78" totalsRowFunction="sum"/>
     <tableColumn id="17" name="Sterne" totalsRowFunction="sum" dataDxfId="0">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -508,7 +519,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,482 +530,530 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>3</v>
       </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
       <c r="Q3">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>12</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
       <c r="Q4">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>12</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
       <c r="Q5">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>18</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>3</v>
       </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
       <c r="Q6">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>16</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
       </c>
       <c r="Q7">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>7</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
         <v>14</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>14</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>3</v>
       </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
       <c r="Q9">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
         <v>13</v>
       </c>
     </row>
@@ -1003,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1036,260 +1095,292 @@
       <c r="N11">
         <v>2</v>
       </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
       <c r="Q11">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>8</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
       </c>
       <c r="Q12">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>13</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
       <c r="K13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
       <c r="Q13">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14">
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>12</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
       <c r="Q15">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>0</v>
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
+      <c r="D16" s="2"/>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="2"/>
+      <c r="Q16">
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17">
+        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]+Tabelle1[[#This Row],[78]]</f>
         <v>0</v>
-      </c>
-      <c r="K16">
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="Q17">
-        <f>Tabelle1[[#This Row],[12]]+Tabelle1[[#This Row],[23]]+Tabelle1[[#This Row],[34]]+Tabelle1[[#This Row],[45]]+Tabelle1[[#This Row],[56]]+Tabelle1[[#This Row],[67]]</f>
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <f>SUBTOTAL(109,Tabelle1[12])</f>
@@ -1317,11 +1408,11 @@
       </c>
       <c r="P18">
         <f>SUBTOTAL(109,Tabelle1[78])</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q18">
         <f>SUBTOTAL(109,Tabelle1[Sterne])</f>
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
